--- a/data/trans_bre/P16A06-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P16A06-Estudios-trans_bre.xlsx
@@ -649,7 +649,7 @@
         <v>1.599709948358823</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.9757663713938596</v>
+        <v>0.9757663713938598</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.54517090368045</v>
+        <v>1.469933202680342</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>5.628321924325046</v>
+        <v>5.497964723128292</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>6.562090141249693</v>
+        <v>6.485667126015492</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.623345591172853</v>
+        <v>7.163576312730275</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.315550971313564</v>
+        <v>0.3054442746717148</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>1.513972736962069</v>
+        <v>1.483029928194487</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9214198133222959</v>
+        <v>0.896498332740512</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.5619639225202284</v>
+        <v>0.5238298350351133</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>5.052937244363138</v>
+        <v>4.94896323151158</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>9.66104846843314</v>
+        <v>9.614806124846895</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>12.64684216895784</v>
+        <v>12.29179262947555</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.61826358235341</v>
+        <v>13.86861143022203</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>1.698403936690478</v>
+        <v>1.680069336880953</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>5.28150184224627</v>
+        <v>5.554935819117815</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>2.78173748335652</v>
+        <v>2.720970555895155</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1.443826476727583</v>
+        <v>1.514522955186016</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>3.163230193590585</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>3.646216971500137</v>
+        <v>3.646216971500136</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.048658407541338</v>
@@ -749,7 +749,7 @@
         <v>1.889575444607296</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.8954417631244861</v>
+        <v>0.8954417631244858</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.305489037949531</v>
+        <v>0.3243333719877419</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.466569006681431</v>
+        <v>1.533043132736429</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>2.022312410697258</v>
+        <v>1.94703893293091</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>2.354032698971272</v>
+        <v>2.33574096855801</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.1608243481981207</v>
+        <v>0.1519217579837535</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6193710576830265</v>
+        <v>0.6537442266027254</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9150113806858188</v>
+        <v>0.8928203312429147</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.5074771266625892</v>
+        <v>0.4864483725033368</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>2.249044101588909</v>
+        <v>2.290045170365521</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>3.717467687277806</v>
+        <v>3.82041344579984</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>4.420590191474153</v>
+        <v>4.408759661312222</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>4.892435994373455</v>
+        <v>4.823822520926389</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>2.713222883860374</v>
+        <v>2.640616981578879</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>2.812961069403466</v>
+        <v>3.001460857630339</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>3.526264615491253</v>
+        <v>3.291530792516647</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.429719617140217</v>
+        <v>1.383140837182679</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>1.544281825306738</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>1.76972551592023</v>
+        <v>1.769725515920231</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.7801444353840509</v>
@@ -849,7 +849,7 @@
         <v>0.8191248332848964</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.4554393330539337</v>
+        <v>0.4554393330539341</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.6649203867115608</v>
+        <v>-0.4993265870679938</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.849875059222075</v>
+        <v>-1.485457442611552</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-0.4193032624784037</v>
+        <v>-0.4643609421282963</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.394394418228754</v>
+        <v>-0.2445057963969842</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.5114698988985886</v>
+        <v>-0.4630330523165889</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.644376166159659</v>
+        <v>-0.5570124924181445</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.2741541271596011</v>
+        <v>-0.2251552067759504</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.09291157257001442</v>
+        <v>-0.08324650997502703</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.419153208992076</v>
+        <v>2.400220163179106</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.006463087832028</v>
+        <v>3.003565843895069</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.683000875277445</v>
+        <v>3.765240036629619</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.739609982329754</v>
+        <v>3.687000887285977</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>4.454217903262265</v>
+        <v>4.873307846580107</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>3.106817934162587</v>
+        <v>3.793867927265852</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>3.464571202312721</v>
+        <v>3.697062950211284</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>1.276387817541065</v>
+        <v>1.260819477117229</v>
       </c>
     </row>
     <row r="13">
@@ -937,7 +937,7 @@
         <v>4.882696024427465</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>5.215268858129447</v>
+        <v>5.215268858129448</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>1.100259253815746</v>
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.372225981795742</v>
+        <v>1.328059413427098</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>3.236531766988099</v>
+        <v>3.180956187679881</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>3.771576995112291</v>
+        <v>3.795953669667996</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>4.090972415916774</v>
+        <v>4.233624152304145</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5917233292910801</v>
+        <v>0.5445038191021148</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>1.312506377841504</v>
+        <v>1.286839226657161</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1.217403807455239</v>
+        <v>1.265812140946089</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.7187426543234183</v>
+        <v>0.7347033378277179</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>3.099014231239869</v>
+        <v>3.056760257974098</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>5.260468863724922</v>
+        <v>5.152676207054642</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>5.993659635250327</v>
+        <v>5.945624815960464</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>6.278959968677535</v>
+        <v>6.328332384329717</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.885557693571135</v>
+        <v>1.809316666159515</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.097809713094262</v>
+        <v>3.043977631518593</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>2.647999776646448</v>
+        <v>2.716172106081561</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.413529149235288</v>
+        <v>1.407783835102932</v>
       </c>
     </row>
     <row r="16">
